--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
     <sheet name="Max International 102" sheetId="2" r:id="rId2"/>
+    <sheet name="Repute Traders 103" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Sr. No</t>
   </si>
@@ -89,6 +90,12 @@
   </si>
   <si>
     <t>GRAND TOTAL</t>
+  </si>
+  <si>
+    <t>Canvas Hoses 101 mm</t>
+  </si>
+  <si>
+    <t>GST 12%</t>
   </si>
 </sst>
 </file>
@@ -191,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -213,6 +220,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -641,39 +652,39 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -693,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
@@ -749,39 +760,39 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -795,4 +806,109 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3">
+        <v>30.5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>66</v>
+      </c>
+      <c r="E2" s="3">
+        <f>30.5*66</f>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="6">
+        <f>SUM(E2)</f>
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="6">
+        <f>E3*12%</f>
+        <v>241.56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="6">
+        <f>SUM(E3:E4)</f>
+        <v>2254.56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,12 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
     <sheet name="Max International 102" sheetId="2" r:id="rId2"/>
     <sheet name="Repute Traders 103" sheetId="3" r:id="rId3"/>
+    <sheet name="MDT 104" sheetId="4" r:id="rId4"/>
+    <sheet name="Namrata 105" sheetId="6" r:id="rId5"/>
+    <sheet name="Masan 106" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
   <si>
     <t>Sr. No</t>
   </si>
@@ -96,13 +99,49 @@
   </si>
   <si>
     <t>GST 12%</t>
+  </si>
+  <si>
+    <t>Item No.</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>AKD-0410V.02</t>
+  </si>
+  <si>
+    <t>Dimming Actuator 4-fold, 4SU MDRC, 1-10V, RGBW 3 years product warranty, Country of origin DE, HS Code 85365080
+Dimming Actuator 4-fold, 4SU MDRC, 1-10V, RGBW. Control
+device for 1-10V electronic transformers with relays. Current
+max. 16A, capacitive load max. 140µF. Push Button for manual
+operation and indicator for each channel. To control 1-10V
+electronic transformers (ECG). With RGBW functionality. RGB und
+HSV control with extensive colour functions. Offers control
+voltage up to 30 ECG (each channel). Voltage reversal protection.
+Embedded switching relays for 30 ECG/30W, 20 ECG/58W, 15
+ECG/2x36W, 10 ECG/2 x58W. Adjustable switch-on behaviour.
+Minimum/maximum brighness value adjustable. Adjustable
+dimming speed. Central switching functions. 8 scenes per
+channel. 1Bit automatic function. 3 years warranty.</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>PVK IN</t>
+  </si>
+  <si>
+    <t>handling and shipping charge / UPS express saver IN</t>
+  </si>
+  <si>
+    <t>Zennio Z41</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +163,38 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri  "/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri  "/>
     </font>
   </fonts>
   <fills count="2">
@@ -198,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -222,9 +293,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -232,6 +327,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -517,10 +618,10 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.44140625" style="7" customWidth="1"/>
     <col min="2" max="2" width="8.88671875" style="7"/>
@@ -532,7 +633,7 @@
     <col min="8" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="28.8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -555,7 +656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="28.8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -579,7 +680,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="28.8">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -603,7 +704,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="28.8">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -627,7 +728,7 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="28.8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -651,40 +752,40 @@
         <v>45024</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -705,10 +806,10 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.5546875" style="7" customWidth="1"/>
     <col min="2" max="2" width="18.109375" style="7" customWidth="1"/>
@@ -718,7 +819,7 @@
     <col min="6" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="20.399999999999999" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -738,7 +839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -759,40 +860,40 @@
         <v>10530</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:6">
+      <c r="A3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:6">
+      <c r="A4" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:6">
+      <c r="A5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -812,11 +913,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="26.33203125" customWidth="1"/>
     <col min="3" max="3" width="9.109375" customWidth="1"/>
@@ -824,7 +925,7 @@
     <col min="5" max="5" width="6.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.2" customHeight="1">
       <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
@@ -841,7 +942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -859,43 +960,43 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="10" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:5" ht="15.6" customHeight="1">
+      <c r="A5" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -911,4 +1012,398 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" customWidth="1"/>
+    <col min="3" max="3" width="68.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.77734375" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27.6">
+      <c r="A1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="166.8" customHeight="1">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="9">
+        <v>6</v>
+      </c>
+      <c r="E2" s="9">
+        <v>22764</v>
+      </c>
+      <c r="F2" s="9">
+        <f>E2*48%</f>
+        <v>10926.72</v>
+      </c>
+      <c r="G2" s="9">
+        <f>D2*E2-F2</f>
+        <v>125657.28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="9">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="9">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9">
+        <v>12587</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9">
+        <f>E3</f>
+        <v>12587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11">
+        <f>SUM(G2:G3)</f>
+        <v>138244.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="26.4">
+      <c r="A7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="234.6" customHeight="1">
+      <c r="A8" s="13">
+        <v>1</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="13">
+        <v>6</v>
+      </c>
+      <c r="E8" s="13">
+        <v>255</v>
+      </c>
+      <c r="F8" s="13">
+        <v>132.6</v>
+      </c>
+      <c r="G8" s="13">
+        <v>795.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="13">
+        <v>2</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="13">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>141</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13">
+        <f>E9</f>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12">
+        <f>SUM(G8:G9)</f>
+        <v>936.6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A10:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R8" sqref="R8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="72">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>616026</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2245</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>22450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="16">
+        <f>SUM(F2:F2)</f>
+        <v>22450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="16">
+        <f>F3*18%</f>
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="16">
+        <f>SUM(F3:F4)</f>
+        <v>26491</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.8" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3">
+        <f>C2*D2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="15">
+        <f>SUM(E2)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="15">
+        <f>E3*12%</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="15">
+        <f>SUM(E3:E4)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,11 @@
     <sheet name="Repute Traders 103" sheetId="3" r:id="rId3"/>
     <sheet name="MDT 104" sheetId="4" r:id="rId4"/>
     <sheet name="Namrata 105" sheetId="6" r:id="rId5"/>
-    <sheet name="Masan 106" sheetId="5" r:id="rId6"/>
+    <sheet name="Namrata 106" sheetId="7" r:id="rId6"/>
+    <sheet name="Collective 107" sheetId="8" r:id="rId7"/>
+    <sheet name="Namrata 108" sheetId="9" r:id="rId8"/>
+    <sheet name="Rashi 109" sheetId="10" r:id="rId9"/>
+    <sheet name="Messung Systems Pvt Ltd 110" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="37">
   <si>
     <t>Sr. No</t>
   </si>
@@ -134,14 +138,26 @@
     <t>handling and shipping charge / UPS express saver IN</t>
   </si>
   <si>
-    <t>Zennio Z41</t>
+    <t>Silicone Red  Pipe id 310 x long 400 x 3mm</t>
+  </si>
+  <si>
+    <t>BEARING_TAKE UP HOUSING_UCT210</t>
+  </si>
+  <si>
+    <t>CNZ</t>
+  </si>
+  <si>
+    <t>ThinkCentre Neo 50s 11T0S05400 TC Neo 50s/I3-12100/4GB/1TB_HD_7200RPM/Win11 HSL/KYB/Mouse/3Y Onsite /19.5" Monitor</t>
+  </si>
+  <si>
+    <t>ZVI-Z41PRO-AP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +212,11 @@
       <color rgb="FF000000"/>
       <name val="Calibri  "/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri  "/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -205,7 +226,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -265,11 +286,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -320,6 +363,39 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -333,6 +409,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -618,7 +706,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -753,39 +841,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -796,6 +884,108 @@
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A8:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="25" style="23" customWidth="1"/>
+    <col min="3" max="3" width="9" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="23" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="25.8" customHeight="1">
+      <c r="A1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>53344</v>
+      </c>
+      <c r="E2" s="13">
+        <f>C2*D2</f>
+        <v>53344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="20">
+        <f>SUM(E2)</f>
+        <v>53344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="20">
+        <f>E3*18%</f>
+        <v>9601.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="20">
+        <f>SUM(E3:E4)</f>
+        <v>62945.919999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="I12" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -861,39 +1051,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -961,36 +1151,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="31"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="31"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -1106,13 +1296,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -1188,13 +1378,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -1215,8 +1405,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1228,26 +1418,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72">
+    <row r="2" spans="1:6" ht="43.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1269,40 +1459,40 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="16">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="16">
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="16">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
       </c>
@@ -1319,83 +1509,425 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="5.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.8" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="15" t="s">
+    <row r="1" spans="1:7" ht="43.2">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="38.4" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
+      <c r="B2" s="3">
+        <v>632215</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2270</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>34050</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45033</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="16">
+        <f>SUM(F2)</f>
+        <v>34050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="16">
+        <f>F3*18%</f>
+        <v>6129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="16">
+        <f>SUM(F3:F4)</f>
+        <v>40179</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" style="21" customWidth="1"/>
+    <col min="3" max="3" width="6.109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="21"/>
+    <col min="5" max="5" width="16.33203125" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A1" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="33.6" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
       <c r="B2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3">
+        <v>30</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2*E2</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="18">
+        <f>SUM(F2)</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="18">
+        <f>F3*18%</f>
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="16.8" customHeight="1">
+      <c r="A5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="18">
+        <f>SUM(F3:F4)</f>
+        <v>38940</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.77734375" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="36" customHeight="1">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="28.8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>616039</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>62000</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45038</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="17">
+        <f>SUM(F2:F2)</f>
+        <v>62000</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="17">
+        <f>F3*18%</f>
+        <v>11160</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="17">
+        <f>SUM(F3:F4)</f>
+        <v>73160</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" customWidth="1"/>
+    <col min="2" max="2" width="41.88671875" customWidth="1"/>
+    <col min="3" max="3" width="6" customWidth="1"/>
+    <col min="5" max="5" width="8.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="33.6" customHeight="1">
+      <c r="A1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="70.8" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="3">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3">
+        <v>33140</v>
+      </c>
       <c r="E2" s="3">
         <f>C2*D2</f>
-        <v>0</v>
+        <v>563380</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="15">
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="19">
         <f>SUM(E2)</f>
-        <v>0</v>
+        <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="15">
-        <f>E3*12%</f>
-        <v>0</v>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="19">
+        <f>E3*18%</f>
+        <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="15">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
-        <v>0</v>
+        <v>664788.4</v>
       </c>
     </row>
   </sheetData>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="Namrata 108" sheetId="9" r:id="rId8"/>
     <sheet name="Rashi 109" sheetId="10" r:id="rId9"/>
     <sheet name="Messung Systems Pvt Ltd 110" sheetId="5" r:id="rId10"/>
+    <sheet name="Namrata 111" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
   <si>
     <t>Sr. No</t>
   </si>
@@ -312,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -391,6 +392,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -841,39 +845,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -943,36 +947,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="38"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="38"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="38"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -986,6 +990,112 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="23.4" customHeight="1">
+      <c r="A1" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="48" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>616026</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2245</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="28">
+        <f>SUM(F2:F2)</f>
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="28">
+        <f>F3*18%</f>
+        <v>8082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="28">
+        <f>SUM(F3:F4)</f>
+        <v>52982</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1051,39 +1161,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -1151,36 +1261,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -1296,13 +1406,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -1378,13 +1488,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -1459,39 +1569,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -1570,39 +1680,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -1678,39 +1788,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="30"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="31"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="31"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -1792,13 +1902,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -1806,13 +1916,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -1820,13 +1930,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -1847,8 +1957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1895,36 +2005,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="5" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="9" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="Rashi 109" sheetId="10" r:id="rId9"/>
     <sheet name="Messung Systems Pvt Ltd 110" sheetId="5" r:id="rId10"/>
     <sheet name="Namrata 111" sheetId="11" r:id="rId11"/>
+    <sheet name="Namrata 112" sheetId="12" r:id="rId12"/>
+    <sheet name="Namrata 113" sheetId="13" r:id="rId13"/>
+    <sheet name="Ar Homez Automation 114" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="39">
   <si>
     <t>Sr. No</t>
   </si>
@@ -152,6 +155,12 @@
   </si>
   <si>
     <t>ZVI-Z41PRO-AP</t>
+  </si>
+  <si>
+    <t>Powers one line of a KNX system 640 mAmp Overload-proof and short circuit protection for both outputs Indicated KNX bus line voltage, output current and line status by LEDs Reset button for resetting the KNX bus line</t>
+  </si>
+  <si>
+    <t>Frieght Charges</t>
   </si>
 </sst>
 </file>
@@ -313,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -395,6 +404,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -845,39 +863,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="29"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29"/>
-      <c r="E6" s="29"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="29"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -898,7 +916,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="A4" sqref="A4:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -947,36 +965,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="41"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="38"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="38"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1000,7 +1018,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1053,39 +1071,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1096,6 +1114,312 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.88671875" customWidth="1"/>
+    <col min="2" max="2" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+    <col min="6" max="6" width="7.33203125" customWidth="1"/>
+    <col min="7" max="7" width="22.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="25.8" customHeight="1">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="37.799999999999997" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>632215</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2270</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>11350</v>
+      </c>
+      <c r="G2" s="5">
+        <v>45045</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="29">
+        <f>SUM(F2:F2)</f>
+        <v>11350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="29">
+        <f>F3*18%</f>
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="29">
+        <f>SUM(F3:F4)</f>
+        <v>13393</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="23.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8">
+      <c r="A1" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>616026</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2245</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>33675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="30">
+        <f>SUM(F2)</f>
+        <v>33675</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="30">
+        <f>F3*18%</f>
+        <v>6061.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="30">
+        <f>SUM(F3:F4)</f>
+        <v>39736.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="28.21875" customWidth="1"/>
+    <col min="3" max="3" width="6.77734375" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="12" customHeight="1">
+      <c r="A1" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="104.4" customHeight="1">
+      <c r="A2" s="25">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="26">
+        <v>1</v>
+      </c>
+      <c r="D2" s="13">
+        <v>14821</v>
+      </c>
+      <c r="E2" s="13">
+        <f>C2*D2</f>
+        <v>14821</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="37.799999999999997" customHeight="1">
+      <c r="A3" s="13">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="13">
+        <v>1</v>
+      </c>
+      <c r="D3" s="13">
+        <v>413</v>
+      </c>
+      <c r="E3" s="13">
+        <f>C3*D3</f>
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="31">
+        <f>SUM(E2:E3)</f>
+        <v>15234</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1161,39 +1485,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -1261,36 +1585,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="35"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="35"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="35"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -1406,13 +1730,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -1488,13 +1812,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -1569,39 +1893,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -1622,7 +1946,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection sqref="A1:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1680,39 +2004,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -1788,39 +2112,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="35"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -1902,13 +2226,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -1916,13 +2240,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -1930,13 +2254,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -2005,36 +2329,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="16" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,14 @@
     <sheet name="Namrata 112" sheetId="12" r:id="rId12"/>
     <sheet name="Namrata 113" sheetId="13" r:id="rId13"/>
     <sheet name="Ar Homez Automation 114" sheetId="14" r:id="rId14"/>
+    <sheet name="Dell Technologies 115" sheetId="16" r:id="rId15"/>
+    <sheet name="Pilz 116" sheetId="19" r:id="rId16"/>
+    <sheet name="Bhavna Rubber 117" sheetId="17" r:id="rId17"/>
+    <sheet name="Bhavna Rubber 118" sheetId="18" r:id="rId18"/>
+    <sheet name="Max International 119" sheetId="20" r:id="rId19"/>
+    <sheet name="Pilz 120" sheetId="21" r:id="rId20"/>
+    <sheet name="Collective 121" sheetId="22" r:id="rId21"/>
+    <sheet name="V M Traders 122" sheetId="15" r:id="rId22"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -32,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="46">
   <si>
     <t>Sr. No</t>
   </si>
@@ -162,12 +170,51 @@
   <si>
     <t>Frieght Charges</t>
   </si>
+  <si>
+    <t>NUKR47</t>
+  </si>
+  <si>
+    <t>Dell SB-3YR-D256001WIN8 - Vostro
+1 Vostro 3020 SFF
+1 Dell 22 Monitor - E2222H
+1 13th Gen Intel(R) Core(TM) i3-13100 processor (4-Core, 12MB Cache, 3.4 GHz to 4.5 GHz)
+1 180W PSU Black Chassis (Green Mesh) with PCIe and TPM
+1 8GB, 8Gx1, DDR4, 3200MHz 1 Multimedia Card Reader 3.0 SD
+1 256GB M.2 PCIe NVMe Solid State Drive
+1 No Optical Drive
+1 System Power Cord India 6A
+1 Energy Star Label
+1 Intel(R) UHD Graphics 730 with shared graphics memory
+1 802.11ac 1x1 WiFi, Bluetooth(R) wireless card
+1 Dell Optical Mouse - MS116 (Black)
+1 Dell Wired Keyboard KB216 Black (English) - US International
+1 McAfee(R) 30day Trial
+1 No Microsoft Office License Included
+1 McAfee(R) Multi Device Security 15 month subscription1 Windows 11 Home, Single Language English
+1 Additional Software
+1 System Driver for Windows</t>
+  </si>
+  <si>
+    <t>Silicone Red  Pipe id 170 x long 160 x 3mm</t>
+  </si>
+  <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>NON CONTACT MAGNETIC SAFETY SWITCH AND ACTUATOR WITH 2 SAFE CONTACTS AND 1 AUXILLARY CONTACTS MOLDED 5 MTRS CABLE</t>
+  </si>
+  <si>
+    <t>Silicone Red  Pipe id 278 x long 500 x 3mm</t>
+  </si>
+  <si>
+    <t>ROD END 20MM</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,16 +274,28 @@
       <color rgb="FF222222"/>
       <name val="Calibri  "/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -318,11 +377,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -418,6 +490,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -443,6 +545,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -728,7 +833,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G8"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -863,39 +968,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -965,36 +1070,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="41"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="40"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1017,7 +1122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -1071,39 +1176,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1186,39 +1291,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1239,7 +1344,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1289,39 +1394,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1406,12 +1511,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1420,6 +1525,586 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="2" max="2" width="60.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30.6" customHeight="1">
+      <c r="A1" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="306" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3">
+        <v>37681.86</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2*D2</f>
+        <v>640591.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="32">
+        <f>SUM(E2)</f>
+        <v>640591.62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="32">
+        <f>E3*18%</f>
+        <v>115306.49159999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="32">
+        <f>SUM(E3:E4)</f>
+        <v>755898.11159999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="35.21875" customWidth="1"/>
+    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8">
+      <c r="A1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="73.2" customHeight="1">
+      <c r="A2" s="37">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>506326</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="38">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3265</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2*E2</f>
+        <v>32650</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="34">
+        <f>SUM(F2)</f>
+        <v>32650</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="34">
+        <f>F3*18%</f>
+        <v>5877</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="34">
+        <f>SUM(F3:F4)</f>
+        <v>38527</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27.6" customHeight="1">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="50.4" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>716663</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>700</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="33">
+        <f>SUM(F2)</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="33">
+        <f>F3*18%</f>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="33">
+        <f>SUM(F3:F4)</f>
+        <v>2478</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" customWidth="1"/>
+    <col min="4" max="4" width="5.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" customHeight="1">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.2" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>616026</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F5" si="0">D2*E2</f>
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="19.8" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>630059</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1250</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>18750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>632215</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="19.2" customHeight="1">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="40">
+        <v>663093</v>
+      </c>
+      <c r="C5" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="34">
+        <f>SUM(F2:F5)</f>
+        <v>64750</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="34">
+        <f>F6*18%</f>
+        <v>11655</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="42"/>
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="34">
+        <f>SUM(F6:F7)</f>
+        <v>76405</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8">
+      <c r="A1" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3">
+        <v>702</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2*E2</f>
+        <v>8424</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="34">
+        <f>SUM(F2)</f>
+        <v>8424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="34">
+        <f>F3*18%</f>
+        <v>1516.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="34">
+        <f>SUM(F3:F4)</f>
+        <v>9940.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1485,39 +2170,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -1528,6 +2213,313 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8">
+      <c r="A1" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="95.4" customHeight="1">
+      <c r="A2" s="37">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>506326</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="38">
+        <v>15</v>
+      </c>
+      <c r="E2" s="3">
+        <v>3265</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2*E2</f>
+        <v>48975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="35">
+        <f>SUM(F2)</f>
+        <v>48975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="35">
+        <f>F3*18%</f>
+        <v>8815.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="35">
+        <f>SUM(F3:F4)</f>
+        <v>57790.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="19.8" customHeight="1">
+      <c r="A1" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3">
+        <v>200</v>
+      </c>
+      <c r="E2" s="3">
+        <v>445</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2*E2</f>
+        <v>89000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="41">
+        <f>SUM(F2)</f>
+        <v>89000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.4" customHeight="1">
+      <c r="A4" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="41">
+        <f>F3*18%</f>
+        <v>16020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="41">
+        <f>SUM(F3:F4)</f>
+        <v>105020</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="20.399999999999999" customHeight="1">
+      <c r="A1" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2*C2</f>
+        <v>15300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="32">
+        <f>SUM(E2)</f>
+        <v>15300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="32">
+        <f>E3*18%</f>
+        <v>2754</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="32">
+        <f>SUM(E3:E4)</f>
+        <v>18054</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1585,36 +2577,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="35"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="35"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="35"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -1730,13 +2722,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -1812,13 +2804,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -1893,39 +2885,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -1946,7 +2938,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G5"/>
+      <selection activeCell="B2" sqref="B2:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2004,39 +2996,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -2057,7 +3049,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2112,39 +3104,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -2226,13 +3218,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -2240,13 +3232,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -2254,13 +3246,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -2329,36 +3321,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="32"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="16" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="18" activeTab="23"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,10 @@
     <sheet name="Max International 119" sheetId="20" r:id="rId19"/>
     <sheet name="Pilz 120" sheetId="21" r:id="rId20"/>
     <sheet name="Collective 121" sheetId="22" r:id="rId21"/>
-    <sheet name="V M Traders 122" sheetId="15" r:id="rId22"/>
+    <sheet name="Rashi 122" sheetId="23" r:id="rId22"/>
+    <sheet name="Digeserve 123" sheetId="24" r:id="rId23"/>
+    <sheet name="Namrata 124" sheetId="25" r:id="rId24"/>
+    <sheet name="V M Traders 125" sheetId="15" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="49">
   <si>
     <t>Sr. No</t>
   </si>
@@ -208,6 +211,15 @@
   </si>
   <si>
     <t>ROD END 20MM</t>
+  </si>
+  <si>
+    <t>Lenovo Monitor 18.5 with HDMI</t>
+  </si>
+  <si>
+    <t>GST 9%</t>
+  </si>
+  <si>
+    <t>Brother Laser HI- L2321D Printer</t>
   </si>
 </sst>
 </file>
@@ -394,7 +406,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -513,6 +525,15 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -833,7 +854,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -968,39 +989,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="A6" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1070,36 +1091,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1176,39 +1197,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="A3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1291,39 +1312,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="A3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1394,39 +1415,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="A3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1511,12 +1532,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
+      <c r="A4" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1581,36 +1602,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="A3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1684,39 +1705,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="A3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -1737,7 +1758,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1788,39 +1809,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="A3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -1841,7 +1862,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A2" sqref="A2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1958,39 +1979,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
+      <c r="A6" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="42"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="42"/>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2062,39 +2083,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2170,39 +2191,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2275,39 +2296,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="A3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2327,8 +2348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2358,7 +2379,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8">
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2380,39 +2401,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="A3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2430,10 +2451,422 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="27.21875" customWidth="1"/>
+    <col min="3" max="3" width="4.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="21.6" customHeight="1">
+      <c r="A1" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.6" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="3">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2*D2</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="42">
+        <f>SUM(E2)</f>
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="42">
+        <f>E3*9%</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="42">
+        <f>E3*9%</f>
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
+      <c r="A6" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="42">
+        <f>SUM(E3:E5)</f>
+        <v>28320</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.4" customHeight="1">
+      <c r="A1" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="43" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2*D2</f>
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="43">
+        <f>SUM(E2)</f>
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="43">
+        <f>E3*9%</f>
+        <v>7110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="43">
+        <f>E3*9%</f>
+        <v>7110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="43">
+        <f>SUM(E3:E5)</f>
+        <v>93220</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="2" width="8.88671875" style="7"/>
+    <col min="3" max="3" width="43.109375" style="7" customWidth="1"/>
+    <col min="4" max="5" width="8.88671875" style="7"/>
+    <col min="6" max="6" width="9.6640625" style="7" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>716663</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3">
+        <v>750</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F6" si="0">D2*E2</f>
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>616026</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>2245</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>22450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>630059</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="3">
+        <v>15</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1725</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>25875</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>632215</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2270</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>11350</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="39">
+        <v>663093</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="44">
+        <f>SUM(F2:F6)</f>
+        <v>89925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="44">
+        <f>F7*18%</f>
+        <v>16186.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="44">
+        <f>SUM(F7:F8)</f>
+        <v>106111.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2480,36 +2913,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
+      <c r="A3" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>15300</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>2754</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>18054</v>
@@ -2577,36 +3010,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
+      <c r="A3" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -2722,13 +3155,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -2804,13 +3237,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -2832,7 +3265,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2885,39 +3318,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="A3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -2938,7 +3371,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2996,39 +3429,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="A3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -3104,39 +3537,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -3157,7 +3590,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3218,13 +3651,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
+      <c r="A3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -3232,13 +3665,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -3246,13 +3679,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -3321,36 +3754,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="42" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="42"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
+      <c r="A3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="18" activeTab="23"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="21" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -32,6 +32,9 @@
     <sheet name="Digeserve 123" sheetId="24" r:id="rId23"/>
     <sheet name="Namrata 124" sheetId="25" r:id="rId24"/>
     <sheet name="V M Traders 125" sheetId="15" r:id="rId25"/>
+    <sheet name="Namrata 126" sheetId="26" r:id="rId26"/>
+    <sheet name="V M Traders 127" sheetId="27" r:id="rId27"/>
+    <sheet name="Collective 128" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="50">
   <si>
     <t>Sr. No</t>
   </si>
@@ -220,6 +223,9 @@
   </si>
   <si>
     <t>Brother Laser HI- L2321D Printer</t>
+  </si>
+  <si>
+    <t>Silicone Red Pipe id 170 x long 300 x 3mm</t>
   </si>
 </sst>
 </file>
@@ -406,7 +412,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -541,6 +547,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -569,6 +584,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -989,39 +1010,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="A6" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1091,36 +1112,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="54"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1197,39 +1218,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1312,39 +1333,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1415,39 +1436,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1532,12 +1553,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="54"/>
+      <c r="A4" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1602,36 +1623,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="A3" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1705,39 +1726,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -1809,39 +1830,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -1979,39 +2000,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
+      <c r="A6" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2083,39 +2104,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2191,39 +2212,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2296,39 +2317,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2401,39 +2422,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2502,48 +2523,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="A3" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2612,48 +2633,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="A3" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -2674,8 +2695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2813,39 +2834,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
+      <c r="A7" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -2866,7 +2887,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2902,50 +2923,50 @@
         <v>39</v>
       </c>
       <c r="C2" s="3">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D2" s="3">
-        <v>1700</v>
+        <v>2200</v>
       </c>
       <c r="E2" s="3">
         <f>D2*C2</f>
-        <v>15300</v>
+        <v>103400</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
+      <c r="A3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
-        <v>15300</v>
+        <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
-        <v>2754</v>
+        <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
-        <v>18054</v>
+        <v>122012</v>
       </c>
     </row>
   </sheetData>
@@ -2953,6 +2974,376 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="14.6640625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="7"/>
+    <col min="5" max="5" width="17" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" customHeight="1">
+      <c r="A1" s="45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59">
+        <v>646872</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1225</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F5" si="0">D2*E2</f>
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>630059</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>54</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1725</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>93150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>615698</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1880</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>616039</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3">
+        <v>30</v>
+      </c>
+      <c r="E5" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>93000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="45">
+        <f>SUM(F2:F5)</f>
+        <v>217200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="45">
+        <f>F6*18%</f>
+        <v>39096</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="45">
+        <f>SUM(F6:F7)</f>
+        <v>256296</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="23.77734375" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2*C2</f>
+        <v>37400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="46">
+        <f>SUM(E2)</f>
+        <v>37400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="46">
+        <f>E3*18%</f>
+        <v>6732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="46">
+        <f>SUM(E3:E4)</f>
+        <v>44132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="29.4" customHeight="1">
+      <c r="A1" s="47" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="47" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="47" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="57.6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3">
+        <v>50</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2*E2</f>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="47">
+        <f>SUM(F2)</f>
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="47">
+        <f>F3*18%</f>
+        <v>9900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="47">
+        <f>SUM(F3:F4)</f>
+        <v>64900</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3010,36 +3401,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="48"/>
+      <c r="A3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="51"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="51"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -3155,13 +3546,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -3237,13 +3628,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -3318,39 +3709,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -3429,39 +3820,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -3537,39 +3928,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="47"/>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -3590,7 +3981,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3651,13 +4042,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="A3" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -3665,13 +4056,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -3679,13 +4070,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -3754,36 +4145,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="A3" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="21" activeTab="27"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="21" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -553,6 +553,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -584,12 +590,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1010,39 +1010,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="A6" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1112,36 +1112,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
+      <c r="A3" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1218,39 +1218,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1333,39 +1333,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1436,39 +1436,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1553,12 +1553,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
+      <c r="A4" s="56" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1623,36 +1623,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="A3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1726,39 +1726,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -1830,39 +1830,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2000,39 +2000,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="A6" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2104,39 +2104,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2212,39 +2212,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2317,39 +2317,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2422,39 +2422,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2523,48 +2523,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="A3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2633,48 +2633,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="A3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -2834,39 +2834,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="A7" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="48" t="s">
+      <c r="A9" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -2934,36 +2934,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -2983,8 +2983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2993,7 +2993,7 @@
     <col min="2" max="2" width="14.6640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="35.5546875" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="7"/>
-    <col min="5" max="5" width="17" style="7" customWidth="1"/>
+    <col min="5" max="5" width="14.5546875" style="7" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
@@ -3021,10 +3021,10 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="59">
+      <c r="B2" s="48">
         <v>646872</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="49" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="3">
@@ -3066,7 +3066,7 @@
       <c r="B4" s="3">
         <v>615698</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="49" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="3">
@@ -3080,7 +3080,7 @@
         <v>18800</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8">
+    <row r="5" spans="1:6" ht="19.2" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3102,39 +3102,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
+      <c r="A6" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3200,36 +3200,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3249,7 +3249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -3301,39 +3301,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
+      <c r="A3" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -3401,36 +3401,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="51"/>
+      <c r="A3" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -3546,13 +3546,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -3628,13 +3628,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -3709,39 +3709,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -3820,39 +3820,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -3928,39 +3928,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="51"/>
+      <c r="A3" s="51" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="51"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -4042,13 +4042,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
+      <c r="A3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -4056,13 +4056,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -4070,13 +4070,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -4145,36 +4145,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="48" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="A3" s="50" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -2984,7 +2984,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3038,7 +3038,7 @@
         <v>12250</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8">
+    <row r="3" spans="1:6" ht="15.6" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>93150</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8">
+    <row r="4" spans="1:6" ht="16.2" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="21" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="25" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -35,6 +35,9 @@
     <sheet name="Namrata 126" sheetId="26" r:id="rId26"/>
     <sheet name="V M Traders 127" sheetId="27" r:id="rId27"/>
     <sheet name="Collective 128" sheetId="28" r:id="rId28"/>
+    <sheet name="Max International 129" sheetId="29" r:id="rId29"/>
+    <sheet name="Namrata 130" sheetId="30" r:id="rId30"/>
+    <sheet name="V M Traders 131" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="52">
   <si>
     <t>Sr. No</t>
   </si>
@@ -226,6 +229,12 @@
   </si>
   <si>
     <t>Silicone Red Pipe id 170 x long 300 x 3mm</t>
+  </si>
+  <si>
+    <t>Silicone Red  Pipe id 330 x long 200 x 3mm</t>
+  </si>
+  <si>
+    <t>Silicone Red  Pipe id 173 x long 200 x 3mm</t>
   </si>
 </sst>
 </file>
@@ -412,7 +421,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -557,6 +566,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1010,39 +1025,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="A6" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1112,36 +1127,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1218,39 +1233,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="A3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1333,39 +1348,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="A3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1436,39 +1451,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="A3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1553,12 +1568,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="56" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59"/>
+      <c r="A4" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1623,36 +1638,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="A3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1726,39 +1741,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="A3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -1830,39 +1845,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="A3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2000,39 +2015,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="A6" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2053,7 +2068,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2104,39 +2119,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2212,39 +2227,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2317,39 +2332,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="A3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2422,39 +2437,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="A3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2523,48 +2538,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="A3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2633,48 +2648,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="A3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -2696,7 +2711,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="B5" sqref="B5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2834,39 +2849,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="A7" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -2934,36 +2949,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -2983,8 +2998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3102,39 +3117,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
+      <c r="A6" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3155,7 +3170,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3200,36 +3215,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3250,7 +3265,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3279,7 +3294,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6">
+    <row r="2" spans="1:6" ht="36" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3301,42 +3316,147 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="8.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24.6" customHeight="1">
+      <c r="A1" s="50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="38.4" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3">
+        <v>702</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2*E2</f>
+        <v>9828</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="50">
+        <f>SUM(F2)</f>
+        <v>9828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="50">
+        <f>F3*18%</f>
+        <v>1769.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="53" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="50">
+        <f>SUM(F3:F4)</f>
+        <v>11597.04</v>
       </c>
     </row>
   </sheetData>
@@ -3401,36 +3521,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -3451,6 +3571,337 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="16" style="7" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" style="7"/>
+    <col min="5" max="5" width="17.44140625" style="7" customWidth="1"/>
+    <col min="6" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1">
+      <c r="A1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="50" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="48">
+        <v>646872</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1225</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F8" si="0">D2*E2</f>
+        <v>12250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>630059</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>20</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1725</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>616039</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3">
+        <v>20</v>
+      </c>
+      <c r="E4" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>616026</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="3">
+        <v>20</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2245</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>44900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>632215</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3">
+        <v>15</v>
+      </c>
+      <c r="E6" s="3">
+        <v>2270</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>34050</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32.4" customHeight="1">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>663092</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="3">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1450</v>
+      </c>
+      <c r="F7" s="3">
+        <f t="shared" si="0"/>
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="28.8">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>663091</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="3">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1050</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>10500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="50">
+        <f>SUM(F2:F8)</f>
+        <v>212700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="50">
+        <f>F9*18%</f>
+        <v>38286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="50">
+        <f>SUM(F9:F10)</f>
+        <v>250986</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="32.4" customHeight="1">
+      <c r="A1" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="51" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="3">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E2" s="3">
+        <f>D2*C2</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="51">
+        <f>SUM(E2)</f>
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="51">
+        <f>E3*18%</f>
+        <v>5940</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="51">
+        <f>SUM(E3:E4)</f>
+        <v>38940</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -3546,13 +3997,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -3628,13 +4079,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -3709,39 +4160,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="A3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -3820,39 +4271,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="A3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -3928,39 +4379,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="55"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="55"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="51" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -4042,13 +4493,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
+      <c r="A3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -4056,13 +4507,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -4070,13 +4521,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -4145,36 +4596,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="50" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
+      <c r="A3" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="50"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="52"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="25" activeTab="30"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="25" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -2996,10 +2996,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3012,7 +3012,7 @@
     <col min="6" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" customHeight="1">
+    <row r="1" spans="1:8" ht="28.8" customHeight="1">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3052,8 +3052,11 @@
         <f t="shared" ref="F2:F5" si="0">D2*E2</f>
         <v>12250</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" customHeight="1">
+      <c r="G2" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3073,8 +3076,15 @@
         <f t="shared" si="0"/>
         <v>93150</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="16.2" customHeight="1">
+      <c r="G3" s="7">
+        <v>19</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H5" si="1">D3-G3</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.2" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3094,8 +3104,11 @@
         <f t="shared" si="0"/>
         <v>18800</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="19.2" customHeight="1">
+      <c r="G4" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="19.2" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3115,8 +3128,15 @@
         <f t="shared" si="0"/>
         <v>93000</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="7">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="52" t="s">
         <v>10</v>
       </c>
@@ -3128,8 +3148,12 @@
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="H6" s="7">
+        <f>SUM(H3:H5)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="52" t="s">
         <v>11</v>
       </c>
@@ -3142,7 +3166,7 @@
         <v>39096</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:8">
       <c r="A8" s="52" t="s">
         <v>12</v>
       </c>
@@ -3576,23 +3600,23 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="7"/>
     <col min="2" max="2" width="16" style="7" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="7"/>
     <col min="5" max="5" width="17.44140625" style="7" customWidth="1"/>
     <col min="6" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" customHeight="1">
+    <row r="1" spans="1:8" ht="15" customHeight="1">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -3612,7 +3636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8">
+    <row r="2" spans="1:8" ht="28.8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3633,7 +3657,7 @@
         <v>12250</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="28.8">
+    <row r="3" spans="1:8" ht="28.8">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3654,7 +3678,7 @@
         <v>34500</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8">
+    <row r="4" spans="1:8" ht="28.8">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3675,7 +3699,7 @@
         <v>62000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="28.8">
+    <row r="5" spans="1:8" ht="28.8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3695,8 +3719,12 @@
         <f t="shared" si="0"/>
         <v>44900</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="28.8">
+      <c r="H5" s="7">
+        <f>D5-10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="28.8">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3717,7 +3745,7 @@
         <v>34050</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="32.4" customHeight="1">
+    <row r="7" spans="1:8" ht="32.4" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3737,8 +3765,12 @@
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="28.8">
+      <c r="H7" s="7">
+        <f>D7-5</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="28.8">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3759,7 +3791,7 @@
         <v>10500</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:8">
       <c r="A9" s="52" t="s">
         <v>10</v>
       </c>
@@ -3772,7 +3804,7 @@
         <v>212700</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" s="52" t="s">
         <v>11</v>
       </c>
@@ -3785,7 +3817,7 @@
         <v>38286</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:8">
       <c r="A11" s="52" t="s">
         <v>12</v>
       </c>
@@ -3812,7 +3844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -37,7 +37,7 @@
     <sheet name="Collective 128" sheetId="28" r:id="rId28"/>
     <sheet name="Max International 129" sheetId="29" r:id="rId29"/>
     <sheet name="Namrata 130" sheetId="30" r:id="rId30"/>
-    <sheet name="V M Traders 131" sheetId="31" r:id="rId31"/>
+    <sheet name="Namrata 131" sheetId="32" r:id="rId31"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="53">
   <si>
     <t>Sr. No</t>
   </si>
@@ -235,6 +235,9 @@
   </si>
   <si>
     <t>Silicone Red  Pipe id 173 x long 200 x 3mm</t>
+  </si>
+  <si>
+    <t>Pending</t>
   </si>
 </sst>
 </file>
@@ -421,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -566,6 +569,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1025,39 +1031,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="A6" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1127,36 +1133,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1233,39 +1239,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1348,39 +1354,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1451,39 +1457,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1568,12 +1574,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
+      <c r="A4" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1638,36 +1644,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1741,39 +1747,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -1845,39 +1851,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2015,39 +2021,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="A6" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2119,39 +2125,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2227,39 +2233,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2332,39 +2338,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2437,39 +2443,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2487,10 +2493,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E6"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2538,59 +2544,146 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
       </c>
     </row>
+    <row r="11" spans="1:5" ht="28.8">
+      <c r="A11" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="28.8">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E12" s="3">
+        <f>C12*D12</f>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="52">
+        <f>SUM(E12)</f>
+        <v>4700</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="52">
+        <f>E13*9%</f>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="52">
+        <f>E13*9%</f>
+        <v>423</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="52">
+        <f>SUM(E13:E15)</f>
+        <v>5546</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2648,48 +2741,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -2711,7 +2804,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:E5"/>
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2849,39 +2942,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -2949,36 +3042,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3137,13 +3230,13 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="52"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
+      <c r="A6" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
@@ -3154,26 +3247,26 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3239,36 +3332,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3340,39 +3433,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -3445,39 +3538,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -3545,36 +3638,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -3600,15 +3693,15 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="1" max="1" width="8.88671875" style="7" customWidth="1"/>
     <col min="2" max="2" width="16" style="7" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="8.88671875" style="7"/>
@@ -3616,7 +3709,7 @@
     <col min="6" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1">
+    <row r="1" spans="1:10" ht="15" customHeight="1">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -3635,8 +3728,11 @@
       <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.8">
+      <c r="J1" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="28.8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3656,8 +3752,12 @@
         <f t="shared" ref="F2:F8" si="0">D2*E2</f>
         <v>12250</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.8">
+      <c r="J2" s="7">
+        <f>D2-H2-I2</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.8">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3677,8 +3777,15 @@
         <f t="shared" si="0"/>
         <v>34500</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.8">
+      <c r="I3" s="7">
+        <v>10</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" ref="J3:J8" si="1">D3-H3-I3</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3698,8 +3805,15 @@
         <f t="shared" si="0"/>
         <v>62000</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="28.8">
+      <c r="I4" s="7">
+        <v>8</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3723,8 +3837,15 @@
         <f>D5-10</f>
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.8">
+      <c r="I5" s="7">
+        <v>10</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.8">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3744,8 +3865,12 @@
         <f t="shared" si="0"/>
         <v>34050</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="32.4" customHeight="1">
+      <c r="J6" s="7">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="32.4" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3769,8 +3894,15 @@
         <f>D7-5</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="28.8">
+      <c r="I7" s="7">
+        <v>5</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="28.8">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3790,41 +3922,48 @@
         <f t="shared" si="0"/>
         <v>10500</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="I8" s="7">
+        <v>10</v>
+      </c>
+      <c r="J8" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="52" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="52" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -3842,96 +3981,103 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="7.5546875" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="7.88671875" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="32.4" customHeight="1">
+    <row r="1" spans="1:6" ht="31.8" customHeight="1">
       <c r="A1" s="51" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1" s="51" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="D1" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="3">
-        <v>15</v>
+      <c r="B2" s="3">
+        <v>716663</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="D2" s="3">
-        <v>2200</v>
+        <v>10</v>
       </c>
       <c r="E2" s="3">
-        <f>D2*C2</f>
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>750</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="51">
-        <f>SUM(E2)</f>
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="51">
+        <f>SUM(F2)</f>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="51">
-        <f>E3*18%</f>
-        <v>5940</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="51">
+        <f>F3*18%</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="51">
-        <f>SUM(E3:E4)</f>
-        <v>38940</v>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="51">
+        <f>SUM(F3:F4)</f>
+        <v>8850</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4029,13 +4175,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -4111,13 +4257,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -4192,39 +4338,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -4303,39 +4449,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -4411,39 +4557,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="55"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="56"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="55"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="56"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -4525,13 +4671,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -4539,13 +4685,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -4553,13 +4699,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -4628,36 +4774,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
+      <c r="A3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="52"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="52"/>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="25" activeTab="29"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="26" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -38,6 +38,7 @@
     <sheet name="Max International 129" sheetId="29" r:id="rId29"/>
     <sheet name="Namrata 130" sheetId="30" r:id="rId30"/>
     <sheet name="Namrata 131" sheetId="32" r:id="rId31"/>
+    <sheet name="Ingram 132" sheetId="33" r:id="rId32"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="54">
   <si>
     <t>Sr. No</t>
   </si>
@@ -238,6 +239,9 @@
   </si>
   <si>
     <t>Pending</t>
+  </si>
+  <si>
+    <t>Fuji UPS</t>
   </si>
 </sst>
 </file>
@@ -424,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -569,6 +573,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1031,39 +1038,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
+      <c r="A6" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1133,36 +1140,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1239,39 +1246,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1354,39 +1361,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1457,39 +1464,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1574,12 +1581,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
+      <c r="A4" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="61"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1644,36 +1651,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1747,39 +1754,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -1851,39 +1858,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2021,39 +2028,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
+      <c r="A6" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2125,39 +2132,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2233,39 +2240,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2338,39 +2345,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2443,39 +2450,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2544,48 +2551,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2627,48 +2634,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
+      <c r="A13" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="53" t="s">
+      <c r="A15" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="53" t="s">
+      <c r="A16" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -2741,48 +2748,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -2942,39 +2949,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="53" t="s">
+      <c r="A9" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3042,36 +3049,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3230,13 +3237,13 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
+      <c r="A6" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
@@ -3247,26 +3254,26 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="53" t="s">
+      <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="53" t="s">
+      <c r="A8" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3332,36 +3339,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3433,39 +3440,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
+      <c r="A3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -3538,39 +3545,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -3638,36 +3645,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -3695,8 +3702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3931,39 +3938,39 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="A9" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4035,39 +4042,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4078,6 +4085,104 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.21875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="17.21875" style="21" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="21"/>
+    <col min="4" max="4" width="14.33203125" style="21" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="21"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.4" customHeight="1">
+      <c r="A1" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3">
+        <v>17</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1650</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2*D2</f>
+        <v>28050</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="53">
+        <f>SUM(E2)</f>
+        <v>28050</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="53">
+        <f>E3*18%</f>
+        <v>5049</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="53">
+        <f>SUM(E3:E4)</f>
+        <v>33099</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4175,13 +4280,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -4257,13 +4362,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -4338,39 +4443,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -4449,39 +4554,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -4557,39 +4662,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="56"/>
+      <c r="A3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="56"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="55" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="56"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -4671,13 +4776,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -4685,13 +4790,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -4699,13 +4804,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -4774,36 +4879,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="53" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
+      <c r="A3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="53" t="s">
+      <c r="A5" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="26" activeTab="31"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="27" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,7 @@
     <sheet name="Namrata 130" sheetId="30" r:id="rId30"/>
     <sheet name="Namrata 131" sheetId="32" r:id="rId31"/>
     <sheet name="Ingram 132" sheetId="33" r:id="rId32"/>
+    <sheet name="ingram 133" sheetId="34" r:id="rId33"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="54">
   <si>
     <t>Sr. No</t>
   </si>
@@ -4095,19 +4096,19 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D3"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="7.21875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="21.5546875" style="21" customWidth="1"/>
     <col min="3" max="3" width="8.88671875" style="21"/>
     <col min="4" max="4" width="14.33203125" style="21" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29.4" customHeight="1">
+    <row r="1" spans="1:5" ht="21.6" customHeight="1">
       <c r="A1" s="53" t="s">
         <v>14</v>
       </c>
@@ -4132,14 +4133,14 @@
         <v>53</v>
       </c>
       <c r="C2" s="3">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3">
-        <v>1650</v>
+        <v>1825</v>
       </c>
       <c r="E2" s="3">
         <f>C2*D2</f>
-        <v>28050</v>
+        <v>18250</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4151,7 +4152,7 @@
       <c r="D3" s="57"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
-        <v>28050</v>
+        <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -4163,7 +4164,7 @@
       <c r="D4" s="57"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
-        <v>5049</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4175,7 +4176,101 @@
       <c r="D5" s="57"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
-        <v>33099</v>
+        <v>21535</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="10.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="43.2">
+      <c r="A1" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="53" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3">
+        <v>10</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1825</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2*D2</f>
+        <v>18250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="53">
+        <f>SUM(E2)</f>
+        <v>18250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="53">
+        <f>E3*18%</f>
+        <v>3285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="53">
+        <f>SUM(E3:E4)</f>
+        <v>21535</v>
       </c>
     </row>
   </sheetData>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="27" activeTab="31"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="26" activeTab="31"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,6 @@
     <sheet name="Namrata 130" sheetId="30" r:id="rId30"/>
     <sheet name="Namrata 131" sheetId="32" r:id="rId31"/>
     <sheet name="Ingram 132" sheetId="33" r:id="rId32"/>
-    <sheet name="ingram 133" sheetId="34" r:id="rId33"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -51,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="53">
   <si>
     <t>Sr. No</t>
   </si>
@@ -237,9 +236,6 @@
   </si>
   <si>
     <t>Silicone Red  Pipe id 173 x long 200 x 3mm</t>
-  </si>
-  <si>
-    <t>Pending</t>
   </si>
   <si>
     <t>Fuji UPS</t>
@@ -3097,10 +3093,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3113,7 +3109,7 @@
     <col min="6" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="28.8" customHeight="1">
+    <row r="1" spans="1:6" ht="28.8" customHeight="1">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -3133,7 +3129,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:6">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3153,11 +3149,8 @@
         <f t="shared" ref="F2:F5" si="0">D2*E2</f>
         <v>12250</v>
       </c>
-      <c r="G2" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.6" customHeight="1">
+    </row>
+    <row r="3" spans="1:6" ht="15.6" customHeight="1">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3177,15 +3170,8 @@
         <f t="shared" si="0"/>
         <v>93150</v>
       </c>
-      <c r="G3" s="7">
-        <v>19</v>
-      </c>
-      <c r="H3" s="7">
-        <f t="shared" ref="H3:H5" si="1">D3-G3</f>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="16.2" customHeight="1">
+    </row>
+    <row r="4" spans="1:6" ht="16.2" customHeight="1">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3205,11 +3191,8 @@
         <f t="shared" si="0"/>
         <v>18800</v>
       </c>
-      <c r="G4" s="7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="19.2" customHeight="1">
+    </row>
+    <row r="5" spans="1:6" ht="19.2" customHeight="1">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3229,15 +3212,8 @@
         <f t="shared" si="0"/>
         <v>93000</v>
       </c>
-      <c r="G5" s="7">
-        <v>13</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="1"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="54" t="s">
         <v>10</v>
       </c>
@@ -3249,12 +3225,8 @@
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
-      <c r="H6" s="7">
-        <f>SUM(H3:H5)</f>
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="54" t="s">
         <v>11</v>
       </c>
@@ -3267,7 +3239,7 @@
         <v>39096</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:6">
       <c r="A8" s="54" t="s">
         <v>12</v>
       </c>
@@ -3701,10 +3673,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:E16"/>
+      <selection activeCell="H1" sqref="H1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3717,7 +3689,7 @@
     <col min="6" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" customHeight="1">
+    <row r="1" spans="1:6" ht="15" customHeight="1">
       <c r="A1" s="50" t="s">
         <v>0</v>
       </c>
@@ -3736,11 +3708,8 @@
       <c r="F1" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="28.8">
+    </row>
+    <row r="2" spans="1:6" ht="28.8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3760,12 +3729,8 @@
         <f t="shared" ref="F2:F8" si="0">D2*E2</f>
         <v>12250</v>
       </c>
-      <c r="J2" s="7">
-        <f>D2-H2-I2</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="28.8">
+    </row>
+    <row r="3" spans="1:6" ht="28.8">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3785,15 +3750,8 @@
         <f t="shared" si="0"/>
         <v>34500</v>
       </c>
-      <c r="I3" s="7">
-        <v>10</v>
-      </c>
-      <c r="J3" s="7">
-        <f t="shared" ref="J3:J8" si="1">D3-H3-I3</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="28.8">
+    </row>
+    <row r="4" spans="1:6" ht="28.8">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3813,15 +3771,8 @@
         <f t="shared" si="0"/>
         <v>62000</v>
       </c>
-      <c r="I4" s="7">
-        <v>8</v>
-      </c>
-      <c r="J4" s="7">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="28.8">
+    </row>
+    <row r="5" spans="1:6" ht="28.8">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3841,19 +3792,8 @@
         <f t="shared" si="0"/>
         <v>44900</v>
       </c>
-      <c r="H5" s="7">
-        <f>D5-10</f>
-        <v>10</v>
-      </c>
-      <c r="I5" s="7">
-        <v>10</v>
-      </c>
-      <c r="J5" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="28.8">
+    </row>
+    <row r="6" spans="1:6" ht="28.8">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3873,12 +3813,8 @@
         <f t="shared" si="0"/>
         <v>34050</v>
       </c>
-      <c r="J6" s="7">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="32.4" customHeight="1">
+    </row>
+    <row r="7" spans="1:6" ht="32.4" customHeight="1">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3898,19 +3834,8 @@
         <f t="shared" si="0"/>
         <v>14500</v>
       </c>
-      <c r="H7" s="7">
-        <f>D7-5</f>
-        <v>5</v>
-      </c>
-      <c r="I7" s="7">
-        <v>5</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="28.8">
+    </row>
+    <row r="8" spans="1:6" ht="28.8">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3930,15 +3855,8 @@
         <f t="shared" si="0"/>
         <v>10500</v>
       </c>
-      <c r="I8" s="7">
-        <v>10</v>
-      </c>
-      <c r="J8" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="54" t="s">
         <v>10</v>
       </c>
@@ -3951,7 +3869,7 @@
         <v>212700</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:6">
       <c r="A10" s="54" t="s">
         <v>11</v>
       </c>
@@ -3964,7 +3882,7 @@
         <v>38286</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:6">
       <c r="A11" s="54" t="s">
         <v>12</v>
       </c>
@@ -4096,7 +4014,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4130,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3">
         <v>10</v>
@@ -4184,100 +4102,6 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="2" max="2" width="10.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="43.2">
-      <c r="A1" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="53" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="53" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1825</v>
-      </c>
-      <c r="E2" s="3">
-        <f>C2*D2</f>
-        <v>18250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="53">
-        <f>SUM(E2)</f>
-        <v>18250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="53">
-        <f>E3*18%</f>
-        <v>3285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="53">
-        <f>SUM(E3:E4)</f>
-        <v>21535</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="26" activeTab="31"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="27" activeTab="33"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,8 @@
     <sheet name="Namrata 130" sheetId="30" r:id="rId30"/>
     <sheet name="Namrata 131" sheetId="32" r:id="rId31"/>
     <sheet name="Ingram 132" sheetId="33" r:id="rId32"/>
+    <sheet name="Dell 201" sheetId="34" r:id="rId33"/>
+    <sheet name="Namrata 202" sheetId="35" r:id="rId34"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -50,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="53">
   <si>
     <t>Sr. No</t>
   </si>
@@ -245,7 +247,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,8 +313,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -323,6 +332,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -422,10 +436,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -587,6 +602,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -618,7 +643,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1035,39 +1061,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="A6" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1137,36 +1163,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1243,39 +1269,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1358,39 +1384,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1461,39 +1487,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1578,12 +1604,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
+      <c r="A4" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1599,10 +1625,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1612,7 +1638,7 @@
     <col min="5" max="5" width="8.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.6" customHeight="1">
+    <row r="1" spans="1:16" ht="30.6" customHeight="1">
       <c r="A1" s="32" t="s">
         <v>14</v>
       </c>
@@ -1629,7 +1655,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="306" customHeight="1">
+    <row r="2" spans="1:16" ht="306" customHeight="1">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1646,38 +1672,39 @@
         <f>C2*D2</f>
         <v>640591.62</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
+      <c r="P2" s="55"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="54" t="s">
+    <row r="4" spans="1:16">
+      <c r="A4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="54" t="s">
+    <row r="5" spans="1:16">
+      <c r="A5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1751,39 +1778,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -1855,39 +1882,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2025,39 +2052,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="A6" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2129,39 +2156,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2237,39 +2264,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2342,39 +2369,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2447,39 +2474,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2548,48 +2575,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
+      <c r="A3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2631,48 +2658,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
+      <c r="A13" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="58"/>
+      <c r="C13" s="58"/>
+      <c r="D13" s="58"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="54"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="58"/>
+      <c r="D15" s="58"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="54"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="58"/>
+      <c r="D16" s="58"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -2745,48 +2772,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
+      <c r="A3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -2946,39 +2973,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3046,36 +3073,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3214,39 +3241,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="A6" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3312,36 +3339,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3413,39 +3440,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -3518,39 +3545,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -3618,36 +3645,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -3676,7 +3703,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:L1048576"/>
+      <selection sqref="A1:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3857,39 +3884,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="A9" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="58"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -3961,39 +3988,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4013,8 +4040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4062,36 +4089,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="57"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4102,6 +4129,207 @@
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.5546875" customWidth="1"/>
+    <col min="2" max="2" width="51.109375" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="5" max="5" width="8.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" customHeight="1">
+      <c r="A1" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="318" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>36889.24</v>
+      </c>
+      <c r="E2" s="3">
+        <f>C2*D2</f>
+        <v>73778.48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="54">
+        <f>SUM(E2)</f>
+        <v>73778.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="54">
+        <v>13280.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="54">
+        <f>SUM(E3:E4)</f>
+        <v>87058.59</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="36.6" customHeight="1">
+      <c r="A1" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="56" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="56" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="72">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>616026</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2245</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>17960</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="56">
+        <f>SUM(F2:F2)</f>
+        <v>17960</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="56">
+        <f>F3*18%</f>
+        <v>3232.7999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="56">
+        <f>SUM(F3:F4)</f>
+        <v>21192.799999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4199,13 +4427,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -4281,13 +4509,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -4362,39 +4590,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -4473,39 +4701,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -4581,39 +4809,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="55" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="57"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="56"/>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="57"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="55" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="56"/>
-      <c r="D5" s="56"/>
-      <c r="E5" s="57"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -4695,13 +4923,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="A3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -4709,13 +4937,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -4723,13 +4951,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
+      <c r="E5" s="58"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -4798,36 +5026,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="54" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
+      <c r="A3" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="58"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="27" activeTab="33"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="28" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,7 @@
     <sheet name="Ingram 132" sheetId="33" r:id="rId32"/>
     <sheet name="Dell 201" sheetId="34" r:id="rId33"/>
     <sheet name="Namrata 202" sheetId="35" r:id="rId34"/>
+    <sheet name="Namrata 203" sheetId="36" r:id="rId35"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="53">
   <si>
     <t>Sr. No</t>
   </si>
@@ -440,7 +441,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -608,6 +609,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1061,39 +1065,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="A6" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1163,36 +1167,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
+      <c r="A3" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1269,39 +1273,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1384,39 +1388,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1487,39 +1491,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1604,12 +1608,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
+      <c r="A4" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1675,36 +1679,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1778,39 +1782,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -1882,39 +1886,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2052,39 +2056,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="A6" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2156,39 +2160,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2264,39 +2268,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2369,39 +2373,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2474,39 +2478,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2575,48 +2579,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2658,48 +2662,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="58"/>
-      <c r="D13" s="58"/>
+      <c r="A13" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="58" t="s">
+      <c r="A14" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="58" t="s">
+      <c r="A15" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58"/>
-      <c r="D15" s="58"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="58" t="s">
+      <c r="A16" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -2772,48 +2776,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -2973,39 +2977,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
+      <c r="A7" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3073,36 +3077,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3241,39 +3245,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="A6" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="58" t="s">
+      <c r="A8" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3339,36 +3343,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3440,39 +3444,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -3545,39 +3549,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -3645,36 +3649,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -3884,39 +3888,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
+      <c r="A9" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="58" t="s">
+      <c r="A11" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -3988,39 +3992,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4089,36 +4093,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4186,35 +4190,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -4234,8 +4238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4265,7 +4269,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72">
+    <row r="2" spans="1:6" ht="28.8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4287,42 +4291,147 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="22.8" customHeight="1">
+      <c r="A1" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="72">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>632215</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2270</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="58">
+        <f>SUM(F2:F2)</f>
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="58">
+        <f>F3*18%</f>
+        <v>4086</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="58">
+        <f>SUM(F3:F4)</f>
+        <v>26786</v>
       </c>
     </row>
   </sheetData>
@@ -4427,13 +4536,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -4509,13 +4618,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -4590,39 +4699,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -4701,39 +4810,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -4809,39 +4918,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -4923,13 +5032,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -4937,13 +5046,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -4951,13 +5060,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -5026,36 +5135,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="58" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
+      <c r="A3" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="28" activeTab="34"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="29" activeTab="35"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,7 @@
     <sheet name="Dell 201" sheetId="34" r:id="rId33"/>
     <sheet name="Namrata 202" sheetId="35" r:id="rId34"/>
     <sheet name="Namrata 203" sheetId="36" r:id="rId35"/>
+    <sheet name="Namrata 204" sheetId="37" r:id="rId36"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="53">
   <si>
     <t>Sr. No</t>
   </si>
@@ -441,7 +442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -609,6 +610,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1065,39 +1069,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
+      <c r="A6" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1167,36 +1171,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="68"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1273,39 +1277,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1388,39 +1392,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1491,39 +1495,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1608,12 +1612,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="68"/>
+      <c r="A4" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1679,36 +1683,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1782,39 +1786,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -1886,39 +1890,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2056,39 +2060,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
+      <c r="A6" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2160,39 +2164,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2268,39 +2272,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2373,39 +2377,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2478,39 +2482,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2579,48 +2583,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2662,48 +2666,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
+      <c r="A13" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="59" t="s">
+      <c r="A14" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="60"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="60"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -2776,48 +2780,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -2977,39 +2981,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
+      <c r="A7" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3077,36 +3081,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3245,39 +3249,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
+      <c r="A6" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="60"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3343,36 +3347,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3444,39 +3448,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -3549,39 +3553,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -3649,36 +3653,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -3888,39 +3892,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
+      <c r="A9" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -3992,39 +3996,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4093,36 +4097,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4190,35 +4194,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -4239,7 +4243,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4291,39 +4295,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -4343,8 +4347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4374,7 +4378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72">
+    <row r="2" spans="1:6" ht="28.8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4396,42 +4400,147 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="34.799999999999997" customHeight="1">
+      <c r="A1" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="59" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="31.2" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>616026</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2245</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>20205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="59">
+        <f>SUM(F2:F2)</f>
+        <v>20205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="59">
+        <f>F3*18%</f>
+        <v>3636.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="59">
+        <f>SUM(F3:F4)</f>
+        <v>23841.9</v>
       </c>
     </row>
   </sheetData>
@@ -4536,13 +4645,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -4618,13 +4727,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -4699,39 +4808,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -4810,39 +4919,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -4918,39 +5027,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -5032,13 +5141,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -5046,13 +5155,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -5060,13 +5169,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -5135,36 +5244,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="59" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
+      <c r="A3" s="60" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="29" activeTab="35"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="33" activeTab="36"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -43,6 +43,9 @@
     <sheet name="Namrata 202" sheetId="35" r:id="rId34"/>
     <sheet name="Namrata 203" sheetId="36" r:id="rId35"/>
     <sheet name="Namrata 204" sheetId="37" r:id="rId36"/>
+    <sheet name="Namrata 205" sheetId="38" r:id="rId37"/>
+    <sheet name="Flexible 206" sheetId="39" r:id="rId38"/>
+    <sheet name="Collective 207" sheetId="40" r:id="rId39"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -54,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="56">
   <si>
     <t>Sr. No</t>
   </si>
@@ -243,6 +246,15 @@
   </si>
   <si>
     <t>Fuji UPS</t>
+  </si>
+  <si>
+    <t>Cement_Dust_BP60_Dia 150 flexible</t>
+  </si>
+  <si>
+    <t>Flexaflex Hoses International</t>
+  </si>
+  <si>
+    <t>30 M</t>
   </si>
 </sst>
 </file>
@@ -442,7 +454,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -610,6 +622,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1069,39 +1084,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
+      <c r="A6" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1171,36 +1186,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1277,39 +1292,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1392,39 +1407,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1495,39 +1510,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1612,12 +1627,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
+      <c r="A4" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1683,36 +1698,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1786,39 +1801,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -1890,39 +1905,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2060,39 +2075,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
+      <c r="A6" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2164,39 +2179,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2272,39 +2287,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2377,39 +2392,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2430,7 +2445,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2482,39 +2497,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2583,48 +2598,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2666,48 +2681,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="60"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="60"/>
+      <c r="A13" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="60" t="s">
+      <c r="A14" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="60"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="60"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="61"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -2780,48 +2795,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -2981,39 +2996,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
+      <c r="A7" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3081,36 +3096,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3131,7 +3146,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="B4" sqref="B4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3249,39 +3264,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
+      <c r="A6" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="60" t="s">
+      <c r="A8" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3347,36 +3362,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3397,7 +3412,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3448,39 +3463,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -3553,39 +3568,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -3653,36 +3668,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -3892,39 +3907,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
+      <c r="A9" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -3945,7 +3960,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="B2" sqref="B2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3996,39 +4011,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4097,36 +4112,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="63"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4194,35 +4209,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -4243,7 +4258,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4295,39 +4310,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -4400,39 +4415,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -4452,7 +4467,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -4505,39 +4520,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -4548,6 +4563,361 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="15.44140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8">
+      <c r="A1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.8">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>615698</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1880</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2:F5" si="0">D2*E2</f>
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="28.8">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>630059</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1725</v>
+      </c>
+      <c r="F3" s="3">
+        <f t="shared" si="0"/>
+        <v>17250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>716663</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="3">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>750</v>
+      </c>
+      <c r="F4" s="3">
+        <f t="shared" si="0"/>
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="28.8">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>632215</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>2270</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="61"/>
+      <c r="F6" s="60">
+        <f>SUM(F2:F5)</f>
+        <v>66250</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="60">
+        <f>F6*18%</f>
+        <v>11925</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="60">
+        <f>SUM(F6:F7)</f>
+        <v>78175</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="31.2" customHeight="1">
+      <c r="A1" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="57.6">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="3">
+        <v>545</v>
+      </c>
+      <c r="F2" s="3">
+        <f>545*30</f>
+        <v>16350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="29.4" customHeight="1">
+      <c r="A1" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="60" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="60" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34.200000000000003" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="3">
+        <v>20</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2*E2</f>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17.399999999999999" customHeight="1">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="3">
+        <v>150</v>
+      </c>
+      <c r="E3" s="3">
+        <v>445</v>
+      </c>
+      <c r="F3" s="3">
+        <f>D3*E3</f>
+        <v>66750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="60">
+        <f>SUM(F2:F3)</f>
+        <v>88750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="60">
+        <f>F4*18%</f>
+        <v>15975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="60">
+        <f>SUM(F4:F5)</f>
+        <v>104725</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4645,13 +5015,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -4727,13 +5097,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -4808,39 +5178,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -4919,39 +5289,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -5027,39 +5397,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -5141,13 +5511,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -5155,13 +5525,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -5169,13 +5539,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -5244,36 +5614,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="60" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
+      <c r="A3" s="61" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4573,7 +4573,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="33" activeTab="36"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="33" activeTab="39"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -46,6 +46,7 @@
     <sheet name="Namrata 205" sheetId="38" r:id="rId37"/>
     <sheet name="Flexible 206" sheetId="39" r:id="rId38"/>
     <sheet name="Collective 207" sheetId="40" r:id="rId39"/>
+    <sheet name="Namrata 208" sheetId="41" r:id="rId40"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="56">
   <si>
     <t>Sr. No</t>
   </si>
@@ -454,7 +455,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -622,6 +623,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1084,39 +1088,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
+      <c r="A6" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1186,36 +1190,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1292,39 +1296,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1407,39 +1411,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1510,39 +1514,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1627,12 +1631,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
+      <c r="A4" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1698,36 +1702,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1801,39 +1805,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -1905,39 +1909,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2075,39 +2079,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
+      <c r="A6" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2179,39 +2183,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2287,39 +2291,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2392,39 +2396,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2497,39 +2501,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2598,48 +2602,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2681,48 +2685,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
+      <c r="A13" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="62"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="61" t="s">
+      <c r="A15" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="61" t="s">
+      <c r="A16" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -2795,48 +2799,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -2996,39 +3000,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="A7" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3096,36 +3100,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3264,39 +3268,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
+      <c r="A6" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3362,36 +3366,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3463,39 +3467,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -3568,39 +3572,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -3668,36 +3672,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -3907,39 +3911,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
+      <c r="A9" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="61" t="s">
+      <c r="A10" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="62"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4011,39 +4015,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4112,36 +4116,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="64"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="65"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4209,35 +4213,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -4310,39 +4314,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -4415,39 +4419,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -4468,7 +4472,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4520,39 +4524,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -4572,7 +4576,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -4689,39 +4693,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
+      <c r="A6" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -4875,39 +4879,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
+      <c r="A4" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="64"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="65"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5015,13 +5019,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -5097,13 +5101,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -5117,6 +5121,110 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="43.2">
+      <c r="A1" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="72">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>616026</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2245</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>22450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="61">
+        <f>SUM(F2:F2)</f>
+        <v>22450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="61">
+        <f>F3*18%</f>
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="61">
+        <f>SUM(F3:F4)</f>
+        <v>26491</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -5178,39 +5286,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5289,39 +5397,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -5397,39 +5505,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="65"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -5511,13 +5619,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -5525,13 +5633,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -5539,13 +5647,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -5614,36 +5722,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="61" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="61"/>
+      <c r="A3" s="62" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="61" t="s">
+      <c r="A4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="33" activeTab="39"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="34" activeTab="40"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -47,6 +47,7 @@
     <sheet name="Flexible 206" sheetId="39" r:id="rId38"/>
     <sheet name="Collective 207" sheetId="40" r:id="rId39"/>
     <sheet name="Namrata 208" sheetId="41" r:id="rId40"/>
+    <sheet name="Namrata 209" sheetId="42" r:id="rId41"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="56">
   <si>
     <t>Sr. No</t>
   </si>
@@ -455,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -623,6 +624,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1088,39 +1092,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
+      <c r="A6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1190,36 +1194,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
+      <c r="A3" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="72"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1296,39 +1300,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1411,39 +1415,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1514,39 +1518,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1631,12 +1635,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
+      <c r="A4" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="72"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1702,36 +1706,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1805,39 +1809,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -1909,39 +1913,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2079,39 +2083,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
+      <c r="A6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2183,39 +2187,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2291,39 +2295,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2396,39 +2400,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2501,39 +2505,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2602,48 +2606,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2685,48 +2689,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
+      <c r="A13" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="62" t="s">
+      <c r="A15" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="62"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="62" t="s">
+      <c r="A16" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="62"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -2799,48 +2803,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3000,39 +3004,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="A7" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="62" t="s">
+      <c r="A9" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3100,36 +3104,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3268,39 +3272,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
+      <c r="A6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3366,36 +3370,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3467,39 +3471,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -3572,39 +3576,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -3672,36 +3676,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -3911,39 +3915,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
+      <c r="A9" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4015,39 +4019,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4116,36 +4120,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="65"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4213,35 +4217,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -4314,39 +4318,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -4419,39 +4423,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -4524,39 +4528,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -4693,39 +4697,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
+      <c r="A6" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="62" t="s">
+      <c r="A7" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="62"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="62" t="s">
+      <c r="A8" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="62"/>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -4879,39 +4883,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
+      <c r="A4" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="65"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5019,13 +5023,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -5101,13 +5105,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -5128,8 +5132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5138,7 +5142,7 @@
     <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.2">
+    <row r="1" spans="1:6" ht="28.8">
       <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
@@ -5158,7 +5162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72">
+    <row r="2" spans="1:6" ht="43.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5180,40 +5184,145 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="61">
+        <f>SUM(F3:F4)</f>
+        <v>26491</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="14.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21" customHeight="1">
+      <c r="A1" s="62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="62" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="33.6" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>616026</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2245</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>22450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="62">
+        <f>SUM(F2:F2)</f>
+        <v>22450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="62">
+        <f>F3*18%</f>
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
+      <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
       </c>
@@ -5286,39 +5395,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5397,39 +5506,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -5505,39 +5614,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -5619,13 +5728,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -5633,13 +5742,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -5647,13 +5756,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
+      <c r="E5" s="63"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -5722,36 +5831,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="62" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
+      <c r="A3" s="63" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="34" activeTab="40"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="35" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -48,6 +48,7 @@
     <sheet name="Collective 207" sheetId="40" r:id="rId39"/>
     <sheet name="Namrata 208" sheetId="41" r:id="rId40"/>
     <sheet name="Namrata 209" sheetId="42" r:id="rId41"/>
+    <sheet name="Namrata 210" sheetId="43" r:id="rId42"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="56">
   <si>
     <t>Sr. No</t>
   </si>
@@ -456,7 +457,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -624,6 +625,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1092,39 +1096,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
+      <c r="A6" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1194,36 +1198,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="72"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="71"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="72"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1300,39 +1304,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1415,39 +1419,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1518,39 +1522,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1635,12 +1639,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
+      <c r="A4" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="71"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1706,36 +1710,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1809,39 +1813,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -1913,39 +1917,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2083,39 +2087,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
+      <c r="A6" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2187,39 +2191,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2295,39 +2299,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2400,39 +2404,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2505,39 +2509,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2606,48 +2610,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2689,48 +2693,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
+      <c r="A13" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="63" t="s">
+      <c r="A14" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="63" t="s">
+      <c r="A16" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -2803,48 +2807,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3004,39 +3008,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
+      <c r="A7" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3104,36 +3108,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
+      <c r="A3" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3272,39 +3276,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
+      <c r="A6" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3370,36 +3374,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
+      <c r="A3" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3471,39 +3475,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -3576,39 +3580,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -3676,36 +3680,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
+      <c r="A3" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -3915,39 +3919,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
+      <c r="A9" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4019,39 +4023,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4120,36 +4124,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="66"/>
+      <c r="A3" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4217,35 +4221,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -4318,39 +4322,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -4423,39 +4427,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -4528,39 +4532,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -4581,7 +4585,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection sqref="A1:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4697,39 +4701,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="63"/>
+      <c r="A6" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="63"/>
+      <c r="B7" s="64"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="63"/>
-      <c r="E8" s="63"/>
+      <c r="B8" s="64"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -4883,39 +4887,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
+      <c r="A4" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5023,13 +5027,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -5105,13 +5109,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -5133,7 +5137,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F5"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5184,39 +5188,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5236,7 +5240,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -5289,42 +5293,147 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.4" customHeight="1">
+      <c r="A1" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="63" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="63" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="63" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="72">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>615698</v>
+      </c>
+      <c r="C2" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1880</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="63">
+        <f>SUM(F2:F2)</f>
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
+      <c r="F4" s="63">
+        <f>F3*18%</f>
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="63">
+        <f>SUM(F3:F4)</f>
+        <v>22184</v>
       </c>
     </row>
   </sheetData>
@@ -5395,39 +5504,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5506,39 +5615,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -5614,39 +5723,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="65" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="65"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -5728,13 +5837,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -5742,13 +5851,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="64"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -5756,13 +5865,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -5831,36 +5940,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="63" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
+      <c r="A3" s="64" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="35" activeTab="41"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="38" activeTab="43"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -49,6 +49,8 @@
     <sheet name="Namrata 208" sheetId="41" r:id="rId40"/>
     <sheet name="Namrata 209" sheetId="42" r:id="rId41"/>
     <sheet name="Namrata 210" sheetId="43" r:id="rId42"/>
+    <sheet name="Cassun Electricals 211" sheetId="44" r:id="rId43"/>
+    <sheet name="Cassun Electricals 212" sheetId="45" r:id="rId44"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -60,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="57">
   <si>
     <t>Sr. No</t>
   </si>
@@ -258,6 +260,9 @@
   </si>
   <si>
     <t>30 M</t>
+  </si>
+  <si>
+    <t>6 core single mode fiber Make -Finolex (mtrs)</t>
   </si>
 </sst>
 </file>
@@ -457,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -625,6 +630,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1096,39 +1107,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+      <c r="A6" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1198,36 +1209,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="73"/>
+      <c r="A3" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="75"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="73"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1304,39 +1315,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1419,39 +1430,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1522,39 +1533,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1639,12 +1650,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="73"/>
+      <c r="A4" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1710,36 +1721,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1813,39 +1824,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -1917,39 +1928,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2087,39 +2098,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+      <c r="A6" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2191,39 +2202,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2299,39 +2310,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2404,39 +2415,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="76"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2509,39 +2520,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2610,48 +2621,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2693,48 +2704,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="64"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
+      <c r="A13" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="64" t="s">
+      <c r="A14" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="64" t="s">
+      <c r="A15" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -2807,48 +2818,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3008,39 +3019,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
+      <c r="A7" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3108,36 +3119,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3276,39 +3287,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+      <c r="A6" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3374,36 +3385,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3475,39 +3486,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -3580,39 +3591,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -3680,36 +3691,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -3919,39 +3930,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
+      <c r="A9" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="64" t="s">
+      <c r="A11" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4023,39 +4034,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4124,36 +4135,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="69"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4221,35 +4232,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -4322,39 +4333,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -4427,39 +4438,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -4532,39 +4543,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -4701,39 +4712,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
-      <c r="E6" s="64"/>
+      <c r="A6" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="64" t="s">
+      <c r="A8" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
-      <c r="E8" s="64"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -4887,39 +4898,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
+      <c r="A4" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="65" t="s">
+      <c r="A6" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="69"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5027,13 +5038,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -5109,13 +5120,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="69" t="s">
+      <c r="A10" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -5188,39 +5199,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5293,39 +5304,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5345,8 +5356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5376,7 +5387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="72">
+    <row r="2" spans="1:6" ht="28.8">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -5398,39 +5409,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="63">
         <f>SUM(F2:F2)</f>
         <v>18800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="63">
         <f>F3*18%</f>
         <v>3384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="63">
         <f>SUM(F3:F4)</f>
         <v>22184</v>
@@ -5441,6 +5452,221 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="27.6" customHeight="1">
+      <c r="A1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="64" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="40.200000000000003" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3036</v>
+      </c>
+      <c r="D2" s="3">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2" si="0">C2*D2</f>
+        <v>51612</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="64">
+        <f>SUM(E2)</f>
+        <v>51612</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="64">
+        <f>E3*9%</f>
+        <v>4645.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="64">
+        <f>E3*9%</f>
+        <v>4645.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="64">
+        <f>SUM(E3:E5)</f>
+        <v>60902.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A5:D5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="27.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="28.8">
+      <c r="A1" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="43.8" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="3">
+        <v>3036</v>
+      </c>
+      <c r="D2" s="3">
+        <v>18</v>
+      </c>
+      <c r="E2" s="3">
+        <f t="shared" ref="E2" si="0">C2*D2</f>
+        <v>54648</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="65">
+        <f>SUM(E2)</f>
+        <v>54648</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="65">
+        <f>E3*9%</f>
+        <v>4918.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="66" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="65">
+        <f>E3*9%</f>
+        <v>4918.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="66" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="65">
+        <f>SUM(E3:E5)</f>
+        <v>64484.639999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5504,39 +5730,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5615,39 +5841,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -5723,39 +5949,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="69"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="69"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="69"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -5837,13 +6063,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -5851,13 +6077,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -5865,13 +6091,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
-      <c r="E5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -5940,36 +6166,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="64" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
+      <c r="A3" s="66" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="64" t="s">
+      <c r="A4" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="64" t="s">
+      <c r="A5" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="38" activeTab="43"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="39" activeTab="44"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -51,6 +51,7 @@
     <sheet name="Namrata 210" sheetId="43" r:id="rId42"/>
     <sheet name="Cassun Electricals 211" sheetId="44" r:id="rId43"/>
     <sheet name="Cassun Electricals 212" sheetId="45" r:id="rId44"/>
+    <sheet name="Namrata 213" sheetId="46" r:id="rId45"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="57">
   <si>
     <t>Sr. No</t>
   </si>
@@ -462,7 +463,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -630,6 +631,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1107,39 +1111,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
+      <c r="A6" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1209,36 +1213,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="75"/>
+      <c r="A3" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="76"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="B5" s="75"/>
+      <c r="C5" s="75"/>
+      <c r="D5" s="76"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1315,39 +1319,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1430,39 +1434,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1533,39 +1537,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1650,12 +1654,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="72" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="75"/>
+      <c r="A4" s="73" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="76"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1721,36 +1725,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1824,39 +1828,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -1928,39 +1932,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2098,39 +2102,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
+      <c r="A6" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2202,39 +2206,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2310,39 +2314,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2415,39 +2419,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2520,39 +2524,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2621,48 +2625,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2704,48 +2708,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
+      <c r="A13" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="67"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="66" t="s">
+      <c r="A14" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="66" t="s">
+      <c r="A15" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
+      <c r="B15" s="67"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="66" t="s">
+      <c r="A16" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
+      <c r="B16" s="67"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -2818,48 +2822,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3019,39 +3023,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
+      <c r="A7" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="66" t="s">
+      <c r="A9" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3119,36 +3123,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3287,39 +3291,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
+      <c r="A6" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3385,36 +3389,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3486,39 +3490,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -3591,39 +3595,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -3691,36 +3695,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -3749,7 +3753,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3930,39 +3934,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
+      <c r="A9" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="66" t="s">
+      <c r="A10" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
+      <c r="B10" s="67"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4034,39 +4038,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4135,36 +4139,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="69"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4232,35 +4236,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -4333,39 +4337,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -4438,39 +4442,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -4543,39 +4547,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -4712,39 +4716,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
+      <c r="A6" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="66" t="s">
+      <c r="A7" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="66" t="s">
+      <c r="A8" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -4898,39 +4902,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="A4" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5038,13 +5042,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="70" t="s">
+      <c r="A4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -5120,13 +5124,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -5199,39 +5203,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5304,39 +5308,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5409,39 +5413,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="63">
         <f>SUM(F2:F2)</f>
         <v>18800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="63">
         <f>F3*18%</f>
         <v>3384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="63">
         <f>SUM(F3:F4)</f>
         <v>22184</v>
@@ -5507,48 +5511,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="64">
         <f>SUM(E2)</f>
         <v>51612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="64">
         <f>SUM(E3:E5)</f>
         <v>60902.16</v>
@@ -5569,8 +5573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5614,48 +5618,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="65">
         <f>SUM(E2)</f>
         <v>54648</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
       <c r="E6" s="65">
         <f>SUM(E3:E5)</f>
         <v>64484.639999999999</v>
@@ -5667,6 +5671,109 @@
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="43.2">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="66" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="66" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="66" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="48" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39">
+        <v>663093</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="66">
+        <f>SUM(F2)</f>
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="66">
+        <f>F3*18%</f>
+        <v>5040</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="66">
+        <f>SUM(F3:F4)</f>
+        <v>33040</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5730,39 +5837,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5841,39 +5948,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -5949,39 +6056,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="69"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -6063,13 +6170,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -6077,13 +6184,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -6091,13 +6198,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -6166,36 +6273,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
+      <c r="A3" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="39" activeTab="44"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="40" activeTab="45"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -52,6 +52,7 @@
     <sheet name="Cassun Electricals 211" sheetId="44" r:id="rId43"/>
     <sheet name="Cassun Electricals 212" sheetId="45" r:id="rId44"/>
     <sheet name="Namrata 213" sheetId="46" r:id="rId45"/>
+    <sheet name="Aditya 214" sheetId="47" r:id="rId46"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="60">
   <si>
     <t>Sr. No</t>
   </si>
@@ -265,6 +266,15 @@
   <si>
     <t>6 core single mode fiber Make -Finolex (mtrs)</t>
   </si>
+  <si>
+    <t>Model Number</t>
+  </si>
+  <si>
+    <t>DGS-1210-10P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dlink 8-Ports 10/100/1000Mbps POE + 2-Ports SFP 100/1000Mbps Smart Managed Switch, 65Watts </t>
+  </si>
 </sst>
 </file>
 
@@ -463,7 +473,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -631,6 +641,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1111,39 +1124,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="A6" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1213,36 +1226,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="76"/>
+      <c r="A3" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="76"/>
+      <c r="D5" s="77"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1319,39 +1332,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1434,39 +1447,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1537,39 +1550,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1654,12 +1667,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="73" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="76"/>
+      <c r="A4" s="74" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1725,36 +1738,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1828,39 +1841,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -1932,39 +1945,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2102,39 +2115,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="A6" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2206,39 +2219,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2314,39 +2327,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2419,39 +2432,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2524,39 +2537,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2625,48 +2638,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2708,48 +2721,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
+      <c r="A13" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="67"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="67"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="67" t="s">
+      <c r="A16" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -2822,48 +2835,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3023,39 +3036,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
+      <c r="A7" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="67" t="s">
+      <c r="A9" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3123,36 +3136,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70"/>
+      <c r="A3" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3291,39 +3304,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="A6" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3389,36 +3402,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70"/>
+      <c r="A3" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3490,39 +3503,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
+      <c r="A3" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -3595,39 +3608,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -3695,36 +3708,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70"/>
+      <c r="A3" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -3934,39 +3947,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="67"/>
+      <c r="A9" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="67" t="s">
+      <c r="A11" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4038,39 +4051,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4139,36 +4152,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="70"/>
+      <c r="A3" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="71"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="71"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4236,35 +4249,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -4337,39 +4350,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -4442,39 +4455,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -4547,39 +4560,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -4716,39 +4729,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
+      <c r="A6" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -4902,39 +4915,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
+      <c r="A4" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="69"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="70"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5042,13 +5055,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -5124,13 +5137,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -5203,39 +5216,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5308,39 +5321,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5413,39 +5426,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="63">
         <f>SUM(F2:F2)</f>
         <v>18800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="63">
         <f>F3*18%</f>
         <v>3384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="63">
         <f>SUM(F3:F4)</f>
         <v>22184</v>
@@ -5511,48 +5524,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="64">
         <f>SUM(E2)</f>
         <v>51612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="64">
         <f>SUM(E3:E5)</f>
         <v>60902.16</v>
@@ -5574,7 +5587,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5618,48 +5631,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="65">
         <f>SUM(E2)</f>
         <v>54648</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="67" t="s">
+      <c r="A6" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
       <c r="E6" s="65">
         <f>SUM(E3:E5)</f>
         <v>64484.639999999999</v>
@@ -5680,8 +5693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5689,7 +5702,7 @@
     <col min="3" max="3" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.2">
+    <row r="1" spans="1:6" ht="28.8">
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
@@ -5731,42 +5744,149 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="66">
         <f>SUM(F2)</f>
         <v>28000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="66">
         <f>F3*18%</f>
         <v>5040</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="66">
         <f>SUM(F3:F4)</f>
         <v>33040</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6.33203125" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="29.21875" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" customWidth="1"/>
+    <col min="6" max="6" width="7.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8" customHeight="1">
+      <c r="A1" s="67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="67" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="67" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="67" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="67" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="44.4" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D2" s="3">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3">
+        <v>9600</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="67">
+        <f>SUM(F2)</f>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="68" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="67">
+        <f>F3*18%</f>
+        <v>8640</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="67">
+        <f>SUM(F3:F4)</f>
+        <v>56640</v>
       </c>
     </row>
   </sheetData>
@@ -5837,39 +5957,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5948,39 +6068,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -6056,39 +6176,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
+      <c r="A3" s="69" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="71"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="69"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="70"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="71"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="71"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -6170,13 +6290,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -6184,13 +6304,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="68"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -6198,13 +6318,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -6273,36 +6393,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="67" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
+      <c r="A3" s="68" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="68" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>

--- a/PO/PO.xlsx
+++ b/PO/PO.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="40" activeTab="45"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="42" activeTab="47"/>
   </bookViews>
   <sheets>
     <sheet name="Namrata 101" sheetId="1" r:id="rId1"/>
@@ -53,6 +53,8 @@
     <sheet name="Cassun Electricals 212" sheetId="45" r:id="rId44"/>
     <sheet name="Namrata 213" sheetId="46" r:id="rId45"/>
     <sheet name="Aditya 214" sheetId="47" r:id="rId46"/>
+    <sheet name="Aditya 215" sheetId="48" r:id="rId47"/>
+    <sheet name="Namrata 216" sheetId="49" r:id="rId48"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -64,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="62">
   <si>
     <t>Sr. No</t>
   </si>
@@ -275,6 +277,12 @@
   <si>
     <t xml:space="preserve">Dlink 8-Ports 10/100/1000Mbps POE + 2-Ports SFP 100/1000Mbps Smart Managed Switch, 65Watts </t>
   </si>
+  <si>
+    <t>DEM-310GT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dlink 1000Base-LX Single-Mode, 10KM SFP Transceiver </t>
+  </si>
 </sst>
 </file>
 
@@ -473,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -641,6 +649,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1124,39 +1138,39 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="A6" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="1">
         <f>SUM(F2:F5)</f>
         <v>80025</v>
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="1">
         <f>F6*18%</f>
         <v>14404.5</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="1">
         <f>SUM(F6:F7)</f>
         <v>94429.5</v>
@@ -1226,36 +1240,36 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="77"/>
+      <c r="A3" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="77"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="20">
         <f>SUM(E2)</f>
         <v>53344</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="20">
         <f>E3*18%</f>
         <v>9601.92</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="76"/>
-      <c r="D5" s="77"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="79"/>
       <c r="E5" s="20">
         <f>SUM(E3:E4)</f>
         <v>62945.919999999998</v>
@@ -1332,39 +1346,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="28">
         <f>SUM(F2:F2)</f>
         <v>44900</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="28">
         <f>F3*18%</f>
         <v>8082</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="28">
         <f>SUM(F3:F4)</f>
         <v>52982</v>
@@ -1447,39 +1461,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="29">
         <f>SUM(F2:F2)</f>
         <v>11350</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="29">
         <f>F3*18%</f>
         <v>2043</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="29">
         <f>SUM(F3:F4)</f>
         <v>13393</v>
@@ -1550,39 +1564,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="30">
         <f>SUM(F2)</f>
         <v>33675</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="30">
         <f>F3*18%</f>
         <v>6061.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="30">
         <f>SUM(F3:F4)</f>
         <v>39736.5</v>
@@ -1667,12 +1681,12 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="74" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
+      <c r="A4" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="77"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="79"/>
       <c r="E4" s="31">
         <f>SUM(E2:E3)</f>
         <v>15234</v>
@@ -1738,36 +1752,36 @@
       <c r="P2" s="55"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>640591.62</v>
       </c>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>115306.49159999999</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>755898.11159999995</v>
@@ -1841,39 +1855,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>32650</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>5877</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>38527</v>
@@ -1945,39 +1959,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="33">
         <f>SUM(F2)</f>
         <v>2100</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="33">
         <f>F3*18%</f>
         <v>378</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="33">
         <f>SUM(F3:F4)</f>
         <v>2478</v>
@@ -2115,39 +2129,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="A6" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="34">
         <f>SUM(F2:F5)</f>
         <v>64750</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="34">
         <f>F6*18%</f>
         <v>11655</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="34">
         <f>SUM(F6:F7)</f>
         <v>76405</v>
@@ -2219,39 +2233,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="34">
         <f>SUM(F2)</f>
         <v>8424</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="34">
         <f>F3*18%</f>
         <v>1516.32</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="34">
         <f>SUM(F3:F4)</f>
         <v>9940.32</v>
@@ -2327,39 +2341,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="1">
         <f>SUM(F2)</f>
         <v>10530</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="1">
         <f>F3*18%</f>
         <v>1895.3999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="1">
         <f>SUM(F3:F4)</f>
         <v>12425.4</v>
@@ -2432,39 +2446,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="35">
         <f>SUM(F2)</f>
         <v>48975</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="35">
         <f>F3*18%</f>
         <v>8815.5</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="35">
         <f>SUM(F3:F4)</f>
         <v>57790.5</v>
@@ -2537,39 +2551,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="41">
         <f>SUM(F2)</f>
         <v>89000</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.4" customHeight="1">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="41">
         <f>F3*18%</f>
         <v>16020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="41">
         <f>SUM(F3:F4)</f>
         <v>105020</v>
@@ -2638,48 +2652,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="42">
         <f>SUM(E2)</f>
         <v>24000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="42">
         <f>E3*9%</f>
         <v>2160</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.600000000000001" customHeight="1">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="42">
         <f>SUM(E3:E5)</f>
         <v>28320</v>
@@ -2721,48 +2735,48 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
+      <c r="A13" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="52">
         <f>SUM(E12)</f>
         <v>4700</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="52">
         <f>E13*9%</f>
         <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="52">
         <f>SUM(E13:E15)</f>
         <v>5546</v>
@@ -2835,48 +2849,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="43">
         <f>SUM(E2)</f>
         <v>79000</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="43">
         <f>E3*9%</f>
         <v>7110</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="43">
         <f>SUM(E3:E5)</f>
         <v>93220</v>
@@ -3036,39 +3050,39 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
+      <c r="A7" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="44">
         <f>SUM(F2:F6)</f>
         <v>89925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="44">
         <f>F7*18%</f>
         <v>16186.5</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="44">
         <f>SUM(F7:F8)</f>
         <v>106111.5</v>
@@ -3136,36 +3150,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
+      <c r="A3" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="32">
         <f>SUM(E2)</f>
         <v>103400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="32">
         <f>E3*18%</f>
         <v>18612</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="32">
         <f>SUM(E3:E4)</f>
         <v>122012</v>
@@ -3304,39 +3318,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="A6" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="45">
         <f>SUM(F2:F5)</f>
         <v>217200</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="45">
         <f>F6*18%</f>
         <v>39096</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="45">
         <f>SUM(F6:F7)</f>
         <v>256296</v>
@@ -3402,36 +3416,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
+      <c r="A3" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="46">
         <f>SUM(E2)</f>
         <v>37400</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="46">
         <f>E3*18%</f>
         <v>6732</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="46">
         <f>SUM(E3:E4)</f>
         <v>44132</v>
@@ -3503,39 +3517,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
+      <c r="A3" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="47">
         <f>SUM(F2)</f>
         <v>55000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="47">
         <f>F3*18%</f>
         <v>9900</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="47">
         <f>SUM(F3:F4)</f>
         <v>64900</v>
@@ -3608,39 +3622,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="50">
         <f>SUM(F2)</f>
         <v>9828</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="50">
         <f>F3*18%</f>
         <v>1769.04</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="50">
         <f>SUM(F3:F4)</f>
         <v>11597.04</v>
@@ -3708,36 +3722,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
+      <c r="A3" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="6">
         <f>SUM(E2)</f>
         <v>2013</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="71" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="6">
         <f>E3*12%</f>
         <v>241.56</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.6" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="6">
         <f>SUM(E3:E4)</f>
         <v>2254.56</v>
@@ -3947,39 +3961,39 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
+      <c r="A9" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="50">
         <f>SUM(F2:F8)</f>
         <v>212700</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="50">
         <f>F9*18%</f>
         <v>38286</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="50">
         <f>SUM(F9:F10)</f>
         <v>250986</v>
@@ -4051,39 +4065,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="51">
         <f>SUM(F2)</f>
         <v>7500</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="51">
         <f>F3*18%</f>
         <v>1350</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="51">
         <f>SUM(F3:F4)</f>
         <v>8850</v>
@@ -4152,36 +4166,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="71"/>
+      <c r="A3" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="53">
         <f>SUM(E2)</f>
         <v>18250</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="73"/>
       <c r="E4" s="53">
         <f>E3*18%</f>
         <v>3285</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="73"/>
       <c r="E5" s="53">
         <f>SUM(E3:E4)</f>
         <v>21535</v>
@@ -4249,35 +4263,35 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="54">
         <f>SUM(E2)</f>
         <v>73778.48</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="54">
         <v>13280.11</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="54">
         <f>SUM(E3:E4)</f>
         <v>87058.59</v>
@@ -4350,39 +4364,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="56">
         <f>SUM(F2:F2)</f>
         <v>17960</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="56">
         <f>F3*18%</f>
         <v>3232.7999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="56">
         <f>SUM(F3:F4)</f>
         <v>21192.799999999999</v>
@@ -4455,39 +4469,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="58">
         <f>SUM(F2:F2)</f>
         <v>22700</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="58">
         <f>F3*18%</f>
         <v>4086</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="58">
         <f>SUM(F3:F4)</f>
         <v>26786</v>
@@ -4508,7 +4522,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4560,39 +4574,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="59">
         <f>SUM(F2:F2)</f>
         <v>20205</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="59">
         <f>F3*18%</f>
         <v>3636.9</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="59">
         <f>SUM(F3:F4)</f>
         <v>23841.9</v>
@@ -4729,39 +4743,39 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="A6" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="60">
         <f>SUM(F2:F5)</f>
         <v>66250</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="68"/>
-      <c r="C7" s="68"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
       <c r="F7" s="60">
         <f>F6*18%</f>
         <v>11925</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="68"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="60">
         <f>SUM(F6:F7)</f>
         <v>78175</v>
@@ -4915,39 +4929,39 @@
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
+      <c r="A4" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="60">
         <f>SUM(F2:F3)</f>
         <v>88750</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="60">
         <f>F4*18%</f>
         <v>15975</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="70"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="71"/>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73"/>
       <c r="F6" s="60">
         <f>SUM(F4:F5)</f>
         <v>104725</v>
@@ -5055,13 +5069,13 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11">
         <f>SUM(G2:G3)</f>
@@ -5137,13 +5151,13 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="73" t="s">
+      <c r="A10" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="73"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
+      <c r="B10" s="75"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="75"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12">
         <f>SUM(G8:G9)</f>
@@ -5216,39 +5230,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="61">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="61">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="61">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5321,39 +5335,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="62">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="62">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="62">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -5426,39 +5440,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="63">
         <f>SUM(F2:F2)</f>
         <v>18800</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="63">
         <f>F3*18%</f>
         <v>3384</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="63">
         <f>SUM(F3:F4)</f>
         <v>22184</v>
@@ -5524,48 +5538,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="64">
         <f>SUM(E2)</f>
         <v>51612</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="64">
         <f>E3*9%</f>
         <v>4645.08</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="64">
         <f>SUM(E3:E5)</f>
         <v>60902.16</v>
@@ -5631,48 +5645,48 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="65">
         <f>SUM(E2)</f>
         <v>54648</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="65">
         <f>E3*9%</f>
         <v>4918.32</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="65">
         <f>SUM(E3:E5)</f>
         <v>64484.639999999999</v>
@@ -5744,39 +5758,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="66">
         <f>SUM(F2)</f>
         <v>28000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="66">
         <f>F3*18%</f>
         <v>5040</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="66">
         <f>SUM(F3:F4)</f>
         <v>33040</v>
@@ -5796,8 +5810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5851,42 +5865,251 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="67">
         <f>SUM(F2)</f>
         <v>48000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="67">
         <f>F3*18%</f>
         <v>8640</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="67">
         <f>SUM(F3:F4)</f>
         <v>56640</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" customWidth="1"/>
+    <col min="4" max="4" width="4.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="28.8">
+      <c r="A1" s="68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="68" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="68" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="38.4" customHeight="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="39" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2075</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>20750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="68">
+        <f>SUM(F2)</f>
+        <v>20750</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="68">
+        <f>F3*18%</f>
+        <v>3735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="68">
+        <f>SUM(F3:F4)</f>
+        <v>24485</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="21.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="43.2">
+      <c r="A1" s="69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>616026</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2245</v>
+      </c>
+      <c r="F2" s="3">
+        <f t="shared" ref="F2" si="0">D2*E2</f>
+        <v>22450</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="69">
+        <f>SUM(F2)</f>
+        <v>22450</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="70" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="69">
+        <f>F3*18%</f>
+        <v>4041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="69">
+        <f>SUM(F3:F4)</f>
+        <v>26491</v>
       </c>
     </row>
   </sheetData>
@@ -5957,39 +6180,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="15">
         <f>SUM(F2:F2)</f>
         <v>22450</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="15">
         <f>F3*18%</f>
         <v>4041</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="15">
         <f>SUM(F3:F4)</f>
         <v>26491</v>
@@ -6068,39 +6291,39 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="16">
         <f>SUM(F2)</f>
         <v>34050</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="16">
         <f>F3*18%</f>
         <v>6129</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="16">
         <f>SUM(F3:F4)</f>
         <v>40179</v>
@@ -6176,39 +6399,39 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="69" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="71"/>
+      <c r="A3" s="71" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="72"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="73"/>
       <c r="F3" s="18">
         <f>SUM(F2)</f>
         <v>33000</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="70"/>
-      <c r="D4" s="70"/>
-      <c r="E4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
       <c r="F4" s="18">
         <f>F3*18%</f>
         <v>5940</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="16.8" customHeight="1">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="70"/>
-      <c r="C5" s="70"/>
-      <c r="D5" s="70"/>
-      <c r="E5" s="71"/>
+      <c r="B5" s="72"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="73"/>
       <c r="F5" s="18">
         <f>SUM(F3:F4)</f>
         <v>38940</v>
@@ -6290,13 +6513,13 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
       <c r="F3" s="17">
         <f>SUM(F2:F2)</f>
         <v>62000</v>
@@ -6304,13 +6527,13 @@
       <c r="G3" s="7"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
       <c r="F4" s="17">
         <f>F3*18%</f>
         <v>11160</v>
@@ -6318,13 +6541,13 @@
       <c r="G4" s="7"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
       <c r="F5" s="17">
         <f>SUM(F3:F4)</f>
         <v>73160</v>
@@ -6393,36 +6616,36 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="68" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
+      <c r="A3" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
       <c r="E3" s="19">
         <f>SUM(E2)</f>
         <v>563380</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
+      <c r="B4" s="70"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="19">
         <f>E3*18%</f>
         <v>101408.4</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="19">
         <f>SUM(E3:E4)</f>
         <v>664788.4</v>
